--- a/myscripts/myinfo.xlsx
+++ b/myscripts/myinfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Knowledge\CS50W\Projects\FinalProject\myscripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6500FF7B-56AC-471E-90C9-F262E90C9144}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43984980-E3D4-4E44-A735-0372B5AEAFCB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5325" windowWidth="13650" windowHeight="7440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dramas" sheetId="1" r:id="rId1"/>
@@ -1558,7 +1558,7 @@
   <dimension ref="A1:D246"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+      <selection activeCell="D190" sqref="D190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2708,6 +2708,9 @@
       <c r="B100" t="s">
         <v>100</v>
       </c>
+      <c r="D100" s="1">
+        <v>43174</v>
+      </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
@@ -3726,7 +3729,9 @@
       <c r="B189" t="s">
         <v>189</v>
       </c>
-      <c r="D189" s="1"/>
+      <c r="D189" s="1">
+        <v>42604</v>
+      </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
